--- a/Squelette_sujet_GUILLAUME/Squelette_sujet_GUILLAUME.xlsx
+++ b/Squelette_sujet_GUILLAUME/Squelette_sujet_GUILLAUME.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>Stimulus</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Erreur</t>
+  </si>
+  <si>
+    <t>Squelette_sujet_GUILLAUME_8</t>
+  </si>
+  <si>
+    <t>patates</t>
+  </si>
+  <si>
+    <t>patate</t>
   </si>
 </sst>
 </file>
@@ -126,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -136,14 +145,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="true"/>
@@ -161,61 +174,61 @@
     <col min="3" max="3" width="10" customWidth="true"/>
     <col min="4" max="4" width="18.85546875" customWidth="true"/>
     <col min="5" max="5" width="11.85546875" customWidth="true"/>
-    <col min="6" max="6" width="9.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="6.42578125" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="6.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F2">
-        <v>0.61773140000877902</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>0.48857399995904416</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="b">
@@ -226,25 +239,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F3">
-        <v>0.40328550001140684</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>0.23602330009452999</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="b">
@@ -255,25 +268,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F4">
-        <v>0.33783319999929518</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>0.28434979997109622</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="b">
@@ -284,25 +297,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F5">
-        <v>0.1886858000070788</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>0.50643439998384565</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H5" t="b">
@@ -313,25 +326,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F6">
-        <v>0.4344664000091143</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>0.17441460001282394</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="b">
@@ -342,25 +355,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F7">
-        <v>0.23021599999628961</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>0.22378240001853555</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H7" t="b">
@@ -371,31 +384,60 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F8">
-        <v>0.12282879999838769</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>0.18429100001230836</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>0.23349070001859218</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
